--- a/analysis/automated/results/logit_multicollinearity.xlsx
+++ b/analysis/automated/results/logit_multicollinearity.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +736,117 @@
         <v>408.3869584590167</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>perception ~ awareness + experience + floodzone</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.8397110995339545</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.571515418025806e-07</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.3080880092635033</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.272748395770334e-35</v>
+      </c>
+      <c r="H11" t="n">
+        <v>388.7758041591774</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>awareness</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1844457403459805</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4972212204408651</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02925622510533518</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3080880092635033</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.272748395770334e-35</v>
+      </c>
+      <c r="H12" t="n">
+        <v>388.7758041591774</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.447925502098296</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.84761401011354e-05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2296655609703076</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3080880092635033</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.272748395770334e-35</v>
+      </c>
+      <c r="H13" t="n">
+        <v>388.7758041591774</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>floodzone</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3.294480459480466</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.448507794401584e-11</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5225605196785391</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3080880092635033</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.272748395770334e-35</v>
+      </c>
+      <c r="H14" t="n">
+        <v>388.7758041591774</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
